--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/10/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/10/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0899964</v>
       </c>
       <c r="B5" t="n">
-        <v>3.31913</v>
+        <v>3.17591</v>
       </c>
       <c r="C5" t="n">
-        <v>3319.13</v>
+        <v>3175.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12</v>
+        <v>0.119974</v>
       </c>
       <c r="B6" t="n">
-        <v>4.01591</v>
+        <v>3.51748</v>
       </c>
       <c r="C6" t="n">
-        <v>4015.91</v>
+        <v>3517.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.150008</v>
+        <v>0.149956</v>
       </c>
       <c r="B7" t="n">
-        <v>4.49188</v>
+        <v>3.79903</v>
       </c>
       <c r="C7" t="n">
-        <v>4491.88</v>
+        <v>3799.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.179961</v>
+        <v>0.179908</v>
       </c>
       <c r="B8" t="n">
-        <v>4.88809</v>
+        <v>3.95998</v>
       </c>
       <c r="C8" t="n">
-        <v>4888.09</v>
+        <v>3959.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.209913</v>
+        <v>0.20986</v>
       </c>
       <c r="B9" t="n">
-        <v>5.27226</v>
+        <v>4.07965</v>
       </c>
       <c r="C9" t="n">
-        <v>5272.26</v>
+        <v>4079.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.239865</v>
+        <v>0.239813</v>
       </c>
       <c r="B10" t="n">
-        <v>5.56789</v>
+        <v>4.170439999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>5567.89</v>
+        <v>4170.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.269784</v>
+        <v>0.269799</v>
       </c>
       <c r="B11" t="n">
-        <v>5.83216</v>
+        <v>4.24911</v>
       </c>
       <c r="C11" t="n">
-        <v>5832.16</v>
+        <v>4249.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.299685</v>
+        <v>0.299803</v>
       </c>
       <c r="B12" t="n">
-        <v>6.04361</v>
+        <v>4.31053</v>
       </c>
       <c r="C12" t="n">
-        <v>6043.61</v>
+        <v>4310.53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.329586</v>
+        <v>0.329806</v>
       </c>
       <c r="B13" t="n">
-        <v>6.22886</v>
+        <v>4.358989999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>6228.86</v>
+        <v>4358.99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.359487</v>
+        <v>0.35981</v>
       </c>
       <c r="B14" t="n">
-        <v>6.39525</v>
+        <v>4.40432</v>
       </c>
       <c r="C14" t="n">
-        <v>6395.25</v>
+        <v>4404.32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.389388</v>
+        <v>0.389729</v>
       </c>
       <c r="B15" t="n">
-        <v>6.55737</v>
+        <v>4.44494</v>
       </c>
       <c r="C15" t="n">
-        <v>6557.37</v>
+        <v>4444.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.419289</v>
+        <v>0.41963</v>
       </c>
       <c r="B16" t="n">
-        <v>6.677720000000001</v>
+        <v>4.48176</v>
       </c>
       <c r="C16" t="n">
-        <v>6677.72</v>
+        <v>4481.76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.449185</v>
+        <v>0.449531</v>
       </c>
       <c r="B17" t="n">
-        <v>6.814640000000001</v>
+        <v>4.51446</v>
       </c>
       <c r="C17" t="n">
-        <v>6814.64</v>
+        <v>4514.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.479087</v>
+        <v>0.479432</v>
       </c>
       <c r="B18" t="n">
-        <v>6.92529</v>
+        <v>4.54115</v>
       </c>
       <c r="C18" t="n">
-        <v>6925.29</v>
+        <v>4541.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.508988</v>
+        <v>0.509333</v>
       </c>
       <c r="B19" t="n">
-        <v>7.02315</v>
+        <v>4.56662</v>
       </c>
       <c r="C19" t="n">
-        <v>7023.15</v>
+        <v>4566.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.538889</v>
+        <v>0.539234</v>
       </c>
       <c r="B20" t="n">
-        <v>7.122</v>
+        <v>4.59158</v>
       </c>
       <c r="C20" t="n">
-        <v>7122</v>
+        <v>4591.58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.56879</v>
+        <v>0.5691349999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>7.21893</v>
+        <v>4.6113</v>
       </c>
       <c r="C21" t="n">
-        <v>7218.93</v>
+        <v>4611.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.598804</v>
+        <v>0.599149</v>
       </c>
       <c r="B22" t="n">
-        <v>7.310350000000001</v>
+        <v>4.63222</v>
       </c>
       <c r="C22" t="n">
-        <v>7310.35</v>
+        <v>4632.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.628948</v>
+        <v>0.62929</v>
       </c>
       <c r="B23" t="n">
-        <v>7.39448</v>
+        <v>4.64906</v>
       </c>
       <c r="C23" t="n">
-        <v>7394.48</v>
+        <v>4649.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.659089</v>
+        <v>0.659434</v>
       </c>
       <c r="B24" t="n">
-        <v>7.47344</v>
+        <v>4.66626</v>
       </c>
       <c r="C24" t="n">
-        <v>7473.44</v>
+        <v>4666.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.689229</v>
+        <v>0.689575</v>
       </c>
       <c r="B25" t="n">
-        <v>7.548100000000001</v>
+        <v>4.68099</v>
       </c>
       <c r="C25" t="n">
-        <v>7548.1</v>
+        <v>4680.99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.719374</v>
+        <v>0.719719</v>
       </c>
       <c r="B26" t="n">
-        <v>7.61823</v>
+        <v>4.69442</v>
       </c>
       <c r="C26" t="n">
-        <v>7618.23</v>
+        <v>4694.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.749514</v>
+        <v>0.74986</v>
       </c>
       <c r="B27" t="n">
-        <v>7.68469</v>
+        <v>4.70751</v>
       </c>
       <c r="C27" t="n">
-        <v>7684.69</v>
+        <v>4707.51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.779654</v>
+        <v>0.78</v>
       </c>
       <c r="B28" t="n">
-        <v>7.74701</v>
+        <v>4.71896</v>
       </c>
       <c r="C28" t="n">
-        <v>7747.01</v>
+        <v>4718.96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.809799</v>
+        <v>0.810145</v>
       </c>
       <c r="B29" t="n">
-        <v>7.80708</v>
+        <v>4.72926</v>
       </c>
       <c r="C29" t="n">
-        <v>7807.08</v>
+        <v>4729.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.83994</v>
+        <v>0.8402849999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>7.86624</v>
+        <v>4.73895</v>
       </c>
       <c r="C30" t="n">
-        <v>7866.24</v>
+        <v>4738.95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.87008</v>
+        <v>0.870425</v>
       </c>
       <c r="B31" t="n">
-        <v>7.92501</v>
+        <v>4.74782</v>
       </c>
       <c r="C31" t="n">
-        <v>7925.01</v>
+        <v>4747.82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9002250000000001</v>
+        <v>0.90057</v>
       </c>
       <c r="B32" t="n">
-        <v>7.9819</v>
+        <v>4.75573</v>
       </c>
       <c r="C32" t="n">
-        <v>7981.9</v>
+        <v>4755.73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.930365</v>
+        <v>0.930711</v>
       </c>
       <c r="B33" t="n">
-        <v>8.03252</v>
+        <v>4.762770000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>8032.52</v>
+        <v>4762.77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.96051</v>
+        <v>0.960851</v>
       </c>
       <c r="B34" t="n">
-        <v>8.07944</v>
+        <v>4.76907</v>
       </c>
       <c r="C34" t="n">
-        <v>8079.44</v>
+        <v>4769.07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.99065</v>
+        <v>0.990996</v>
       </c>
       <c r="B35" t="n">
-        <v>8.130090000000001</v>
+        <v>4.77471</v>
       </c>
       <c r="C35" t="n">
-        <v>8130.09</v>
+        <v>4774.71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.02079</v>
+        <v>1.02114</v>
       </c>
       <c r="B36" t="n">
-        <v>8.1782</v>
+        <v>4.7797</v>
       </c>
       <c r="C36" t="n">
-        <v>8178.2</v>
+        <v>4779.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.05093</v>
+        <v>1.05128</v>
       </c>
       <c r="B37" t="n">
-        <v>8.219190000000001</v>
+        <v>4.78403</v>
       </c>
       <c r="C37" t="n">
-        <v>8219.190000000001</v>
+        <v>4784.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.08108</v>
+        <v>1.08142</v>
       </c>
       <c r="B38" t="n">
-        <v>8.264250000000001</v>
+        <v>4.78773</v>
       </c>
       <c r="C38" t="n">
-        <v>8264.25</v>
+        <v>4787.73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.11122</v>
+        <v>1.11156</v>
       </c>
       <c r="B39" t="n">
-        <v>8.30613</v>
+        <v>4.79077</v>
       </c>
       <c r="C39" t="n">
-        <v>8306.129999999999</v>
+        <v>4790.77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.14136</v>
+        <v>1.14171</v>
       </c>
       <c r="B40" t="n">
-        <v>8.34412</v>
+        <v>4.7932</v>
       </c>
       <c r="C40" t="n">
-        <v>8344.120000000001</v>
+        <v>4793.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.1715</v>
+        <v>1.17145</v>
       </c>
       <c r="B41" t="n">
-        <v>8.385450000000001</v>
+        <v>4.795050000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>8385.450000000001</v>
+        <v>4795.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.20164</v>
+        <v>1.20118</v>
       </c>
       <c r="B42" t="n">
-        <v>8.420489999999999</v>
+        <v>4.79631</v>
       </c>
       <c r="C42" t="n">
-        <v>8420.49</v>
+        <v>4796.31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.23179</v>
+        <v>1.23091</v>
       </c>
       <c r="B43" t="n">
-        <v>8.458530000000001</v>
+        <v>4.79696</v>
       </c>
       <c r="C43" t="n">
-        <v>8458.530000000001</v>
+        <v>4796.96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.26193</v>
+        <v>1.26064</v>
       </c>
       <c r="B44" t="n">
-        <v>8.492100000000001</v>
+        <v>4.79696</v>
       </c>
       <c r="C44" t="n">
-        <v>8492.1</v>
+        <v>4796.96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.29207</v>
+        <v>1.29037</v>
       </c>
       <c r="B45" t="n">
-        <v>8.527240000000001</v>
+        <v>4.79643</v>
       </c>
       <c r="C45" t="n">
-        <v>8527.24</v>
+        <v>4796.43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.32221</v>
+        <v>1.3201</v>
       </c>
       <c r="B46" t="n">
-        <v>8.558530000000001</v>
+        <v>4.79533</v>
       </c>
       <c r="C46" t="n">
-        <v>8558.530000000001</v>
+        <v>4795.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.35235</v>
+        <v>1.34983</v>
       </c>
       <c r="B47" t="n">
-        <v>8.591670000000001</v>
+        <v>4.79372</v>
       </c>
       <c r="C47" t="n">
-        <v>8591.67</v>
+        <v>4793.72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.3825</v>
+        <v>1.37956</v>
       </c>
       <c r="B48" t="n">
-        <v>8.62067</v>
+        <v>4.79153</v>
       </c>
       <c r="C48" t="n">
-        <v>8620.67</v>
+        <v>4791.53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.41264</v>
+        <v>1.40929</v>
       </c>
       <c r="B49" t="n">
-        <v>8.652190000000001</v>
+        <v>4.78884</v>
       </c>
       <c r="C49" t="n">
-        <v>8652.190000000001</v>
+        <v>4788.84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.44278</v>
+        <v>1.43901</v>
       </c>
       <c r="B50" t="n">
-        <v>8.67916</v>
+        <v>4.78559</v>
       </c>
       <c r="C50" t="n">
-        <v>8679.16</v>
+        <v>4785.59</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.47292</v>
+        <v>1.46874</v>
       </c>
       <c r="B51" t="n">
-        <v>8.708410000000001</v>
+        <v>4.78182</v>
       </c>
       <c r="C51" t="n">
-        <v>8708.41</v>
+        <v>4781.82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.50306</v>
+        <v>1.49847</v>
       </c>
       <c r="B52" t="n">
-        <v>8.735200000000001</v>
+        <v>4.777520000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>8735.200000000001</v>
+        <v>4777.52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.53321</v>
+        <v>1.5282</v>
       </c>
       <c r="B53" t="n">
-        <v>8.760719999999999</v>
+        <v>4.772699999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>8760.719999999999</v>
+        <v>4772.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.56335</v>
+        <v>1.55821</v>
       </c>
       <c r="B54" t="n">
-        <v>8.7874</v>
+        <v>4.76722</v>
       </c>
       <c r="C54" t="n">
-        <v>8787.4</v>
+        <v>4767.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.59349</v>
+        <v>1.5885</v>
       </c>
       <c r="B55" t="n">
-        <v>8.811069999999999</v>
+        <v>4.76107</v>
       </c>
       <c r="C55" t="n">
-        <v>8811.07</v>
+        <v>4761.07</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.62363</v>
+        <v>1.61879</v>
       </c>
       <c r="B56" t="n">
-        <v>8.835000000000001</v>
+        <v>4.754</v>
       </c>
       <c r="C56" t="n">
-        <v>8835</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.65377</v>
+        <v>1.64909</v>
       </c>
       <c r="B57" t="n">
-        <v>8.859129999999999</v>
+        <v>4.7462</v>
       </c>
       <c r="C57" t="n">
-        <v>8859.129999999999</v>
+        <v>4746.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.68391</v>
+        <v>1.67938</v>
       </c>
       <c r="B58" t="n">
-        <v>8.8809</v>
+        <v>4.73793</v>
       </c>
       <c r="C58" t="n">
-        <v>8880.9</v>
+        <v>4737.93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.71406</v>
+        <v>1.70967</v>
       </c>
       <c r="B59" t="n">
-        <v>8.902469999999999</v>
+        <v>4.72906</v>
       </c>
       <c r="C59" t="n">
-        <v>8902.469999999999</v>
+        <v>4729.06</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.7442</v>
+        <v>1.73997</v>
       </c>
       <c r="B60" t="n">
-        <v>8.92445</v>
+        <v>4.71957</v>
       </c>
       <c r="C60" t="n">
-        <v>8924.450000000001</v>
+        <v>4719.57</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.77434</v>
+        <v>1.77026</v>
       </c>
       <c r="B61" t="n">
-        <v>8.944850000000001</v>
+        <v>4.70944</v>
       </c>
       <c r="C61" t="n">
-        <v>8944.85</v>
+        <v>4709.44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.80448</v>
+        <v>1.80055</v>
       </c>
       <c r="B62" t="n">
-        <v>8.964170000000001</v>
+        <v>4.69862</v>
       </c>
       <c r="C62" t="n">
-        <v>8964.17</v>
+        <v>4698.62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.83462</v>
+        <v>1.83084</v>
       </c>
       <c r="B63" t="n">
-        <v>8.98377</v>
+        <v>4.68708</v>
       </c>
       <c r="C63" t="n">
-        <v>8983.77</v>
+        <v>4687.08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.86477</v>
+        <v>1.86114</v>
       </c>
       <c r="B64" t="n">
-        <v>9.00304</v>
+        <v>4.674810000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>9003.040000000001</v>
+        <v>4674.81</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.89491</v>
+        <v>1.89143</v>
       </c>
       <c r="B65" t="n">
-        <v>9.021040000000001</v>
+        <v>4.66162</v>
       </c>
       <c r="C65" t="n">
-        <v>9021.040000000001</v>
+        <v>4661.62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.92505</v>
+        <v>1.92172</v>
       </c>
       <c r="B66" t="n">
-        <v>9.03824</v>
+        <v>4.64752</v>
       </c>
       <c r="C66" t="n">
-        <v>9038.24</v>
+        <v>4647.52</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.95519</v>
+        <v>1.95202</v>
       </c>
       <c r="B67" t="n">
-        <v>9.055389999999999</v>
+        <v>4.63249</v>
       </c>
       <c r="C67" t="n">
-        <v>9055.389999999999</v>
+        <v>4632.49</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.98533</v>
+        <v>1.98231</v>
       </c>
       <c r="B68" t="n">
-        <v>9.072330000000001</v>
+        <v>4.6166</v>
       </c>
       <c r="C68" t="n">
-        <v>9072.33</v>
+        <v>4616.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.01526</v>
+        <v>2.01258</v>
       </c>
       <c r="B69" t="n">
-        <v>9.088480000000001</v>
+        <v>4.599810000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>9088.48</v>
+        <v>4599.81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.045</v>
+        <v>2.04245</v>
       </c>
       <c r="B70" t="n">
-        <v>9.10375</v>
+        <v>4.582020000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>9103.75</v>
+        <v>4582.02</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.07472</v>
+        <v>2.07232</v>
       </c>
       <c r="B71" t="n">
-        <v>9.118510000000001</v>
+        <v>4.56333</v>
       </c>
       <c r="C71" t="n">
-        <v>9118.51</v>
+        <v>4563.33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.10445</v>
+        <v>2.10218</v>
       </c>
       <c r="B72" t="n">
-        <v>9.13297</v>
+        <v>4.54357</v>
       </c>
       <c r="C72" t="n">
-        <v>9132.969999999999</v>
+        <v>4543.57</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.13418</v>
+        <v>2.13205</v>
       </c>
       <c r="B73" t="n">
-        <v>9.1471</v>
+        <v>4.522699999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>9147.1</v>
+        <v>4522.7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.16391</v>
+        <v>2.16192</v>
       </c>
       <c r="B74" t="n">
-        <v>9.160770000000001</v>
+        <v>4.50075</v>
       </c>
       <c r="C74" t="n">
-        <v>9160.77</v>
+        <v>4500.75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.19364</v>
+        <v>2.19178</v>
       </c>
       <c r="B75" t="n">
-        <v>9.173870000000001</v>
+        <v>4.4777</v>
       </c>
       <c r="C75" t="n">
-        <v>9173.870000000001</v>
+        <v>4477.7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.22337</v>
+        <v>2.22165</v>
       </c>
       <c r="B76" t="n">
-        <v>9.186399999999999</v>
+        <v>4.45375</v>
       </c>
       <c r="C76" t="n">
-        <v>9186.4</v>
+        <v>4453.75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.2531</v>
+        <v>2.25177</v>
       </c>
       <c r="B77" t="n">
-        <v>9.19838</v>
+        <v>4.42809</v>
       </c>
       <c r="C77" t="n">
-        <v>9198.379999999999</v>
+        <v>4428.09</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.28283</v>
+        <v>2.28168</v>
       </c>
       <c r="B78" t="n">
-        <v>9.209950000000001</v>
+        <v>4.40161</v>
       </c>
       <c r="C78" t="n">
-        <v>9209.950000000001</v>
+        <v>4401.61</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.31256</v>
+        <v>2.3118</v>
       </c>
       <c r="B79" t="n">
-        <v>9.22118</v>
+        <v>4.37342</v>
       </c>
       <c r="C79" t="n">
-        <v>9221.18</v>
+        <v>4373.42</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.34281</v>
+        <v>2.34155</v>
       </c>
       <c r="B80" t="n">
-        <v>9.232149999999999</v>
+        <v>4.34436</v>
       </c>
       <c r="C80" t="n">
-        <v>9232.15</v>
+        <v>4344.36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.37353</v>
+        <v>2.37103</v>
       </c>
       <c r="B81" t="n">
-        <v>9.24292</v>
+        <v>4.314319999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>9242.92</v>
+        <v>4314.32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.40425</v>
+        <v>2.40172</v>
       </c>
       <c r="B82" t="n">
-        <v>9.253270000000001</v>
+        <v>4.281359999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>9253.27</v>
+        <v>4281.36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.43497</v>
+        <v>2.43188</v>
       </c>
       <c r="B83" t="n">
-        <v>9.26314</v>
+        <v>4.24775</v>
       </c>
       <c r="C83" t="n">
-        <v>9263.139999999999</v>
+        <v>4247.75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.46569</v>
+        <v>2.46141</v>
       </c>
       <c r="B84" t="n">
-        <v>9.272549999999999</v>
+        <v>4.21351</v>
       </c>
       <c r="C84" t="n">
-        <v>9272.549999999999</v>
+        <v>4213.51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.49563</v>
+        <v>2.49143</v>
       </c>
       <c r="B85" t="n">
-        <v>9.28153</v>
+        <v>4.17694</v>
       </c>
       <c r="C85" t="n">
-        <v>9281.530000000001</v>
+        <v>4176.94</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.5255</v>
+        <v>2.52198</v>
       </c>
       <c r="B86" t="n">
-        <v>9.290040000000001</v>
+        <v>4.13851</v>
       </c>
       <c r="C86" t="n">
-        <v>9290.040000000001</v>
+        <v>4138.51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.55536</v>
+        <v>2.55185</v>
       </c>
       <c r="B87" t="n">
-        <v>9.298110000000001</v>
+        <v>4.09953</v>
       </c>
       <c r="C87" t="n">
-        <v>9298.110000000001</v>
+        <v>4099.53</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.58523</v>
+        <v>2.5809</v>
       </c>
       <c r="B88" t="n">
-        <v>9.305820000000001</v>
+        <v>4.06004</v>
       </c>
       <c r="C88" t="n">
-        <v>9305.82</v>
+        <v>4060.04</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.6151</v>
+        <v>2.61177</v>
       </c>
       <c r="B89" t="n">
-        <v>9.313079999999999</v>
+        <v>4.01707</v>
       </c>
       <c r="C89" t="n">
-        <v>9313.08</v>
+        <v>4017.07</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.64496</v>
+        <v>2.64203</v>
       </c>
       <c r="B90" t="n">
-        <v>9.31996</v>
+        <v>3.97333</v>
       </c>
       <c r="C90" t="n">
-        <v>9319.959999999999</v>
+        <v>3973.33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.67483</v>
+        <v>2.67168</v>
       </c>
       <c r="B91" t="n">
-        <v>9.326409999999999</v>
+        <v>3.92945</v>
       </c>
       <c r="C91" t="n">
-        <v>9326.41</v>
+        <v>3929.45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.7047</v>
+        <v>2.70077</v>
       </c>
       <c r="B92" t="n">
-        <v>9.332510000000001</v>
+        <v>3.8855</v>
       </c>
       <c r="C92" t="n">
-        <v>9332.51</v>
+        <v>3885.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.73456</v>
+        <v>2.73166</v>
       </c>
       <c r="B93" t="n">
-        <v>9.33816</v>
+        <v>3.83749</v>
       </c>
       <c r="C93" t="n">
-        <v>9338.16</v>
+        <v>3837.49</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.76443</v>
+        <v>2.76231</v>
       </c>
       <c r="B94" t="n">
-        <v>9.343450000000001</v>
+        <v>3.78951</v>
       </c>
       <c r="C94" t="n">
-        <v>9343.450000000001</v>
+        <v>3789.51</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.7943</v>
+        <v>2.79175</v>
       </c>
       <c r="B95" t="n">
-        <v>9.34826</v>
+        <v>3.74181</v>
       </c>
       <c r="C95" t="n">
-        <v>9348.26</v>
+        <v>3741.81</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.82416</v>
+        <v>2.82078</v>
       </c>
       <c r="B96" t="n">
-        <v>9.35272</v>
+        <v>3.69459</v>
       </c>
       <c r="C96" t="n">
-        <v>9352.719999999999</v>
+        <v>3694.59</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.85403</v>
+        <v>2.85204</v>
       </c>
       <c r="B97" t="n">
-        <v>9.356780000000001</v>
+        <v>3.64301</v>
       </c>
       <c r="C97" t="n">
-        <v>9356.780000000001</v>
+        <v>3643.01</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.88389</v>
+        <v>2.88227</v>
       </c>
       <c r="B98" t="n">
-        <v>9.360440000000001</v>
+        <v>3.59211</v>
       </c>
       <c r="C98" t="n">
-        <v>9360.440000000001</v>
+        <v>3592.11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.91376</v>
+        <v>2.91213</v>
       </c>
       <c r="B99" t="n">
-        <v>9.363670000000001</v>
+        <v>3.54215</v>
       </c>
       <c r="C99" t="n">
-        <v>9363.67</v>
+        <v>3542.15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.94363</v>
+        <v>2.94067</v>
       </c>
       <c r="B100" t="n">
-        <v>9.3665</v>
+        <v>3.49302</v>
       </c>
       <c r="C100" t="n">
-        <v>9366.5</v>
+        <v>3493.02</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.97278</v>
+        <v>2.97133</v>
       </c>
       <c r="B101" t="n">
-        <v>9.36889</v>
+        <v>3.44099</v>
       </c>
       <c r="C101" t="n">
-        <v>9368.889999999999</v>
+        <v>3440.99</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.0018</v>
+        <v>3.00218</v>
       </c>
       <c r="B102" t="n">
-        <v>9.37088</v>
+        <v>3.38789</v>
       </c>
       <c r="C102" t="n">
-        <v>9370.879999999999</v>
+        <v>3387.89</v>
       </c>
     </row>
   </sheetData>
